--- a/ROOT/1. SCM-Anwendungen(MA)_Lieferantenuebersicht.xlsx
+++ b/ROOT/1. SCM-Anwendungen(MA)_Lieferantenuebersicht.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9716A07-04B6-41B3-88F6-D521E55EDF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6040359B-CCE9-4F57-BF06-512180526440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lieferanten" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Lieferant_Name</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Kobalt Technik</t>
   </si>
   <si>
-    <t>Kobalt Solutions</t>
-  </si>
-  <si>
-    <t>Kobalt Produkte</t>
-  </si>
-  <si>
     <t>K_001</t>
   </si>
   <si>
@@ -59,12 +53,6 @@
   </si>
   <si>
     <t>K_003</t>
-  </si>
-  <si>
-    <t>K_004</t>
-  </si>
-  <si>
-    <t>K_005</t>
   </si>
   <si>
     <t>Warengruppe</t>
@@ -453,7 +441,7 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G8" sqref="A7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.85546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -464,14 +452,14 @@
   <sheetData>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -486,16 +474,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -503,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -515,10 +503,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -526,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -538,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -549,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -561,57 +549,19 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -622,10 +572,8 @@
     <hyperlink ref="G4" r:id="rId1" xr:uid="{E81176BE-3930-4F36-A1E6-A568907B25DB}"/>
     <hyperlink ref="G5" r:id="rId2" xr:uid="{51CABCA6-AB35-46ED-8D8A-61C59CCC86B4}"/>
     <hyperlink ref="G6" r:id="rId3" xr:uid="{60AFD641-5955-40A8-91FE-84042D788086}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{88138B36-FD95-4378-9E3C-7BF0833B27F3}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{E7A56C62-7806-4C81-8294-A4628D391990}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/ROOT/1. SCM-Anwendungen(MA)_Lieferantenuebersicht.xlsx
+++ b/ROOT/1. SCM-Anwendungen(MA)_Lieferantenuebersicht.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6040359B-CCE9-4F57-BF06-512180526440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B2415C-95F2-4C13-A378-656E726306E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Lieferant_Name</t>
   </si>
@@ -46,6 +46,12 @@
     <t>Kobalt Technik</t>
   </si>
   <si>
+    <t>Kobalt Solutions</t>
+  </si>
+  <si>
+    <t>Kobalt Produkte</t>
+  </si>
+  <si>
     <t>K_001</t>
   </si>
   <si>
@@ -55,6 +61,12 @@
     <t>K_003</t>
   </si>
   <si>
+    <t>K_004</t>
+  </si>
+  <si>
+    <t>K_005</t>
+  </si>
+  <si>
     <t>Warengruppe</t>
   </si>
   <si>
@@ -70,10 +82,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Anouar Hizaoui</t>
-  </si>
-  <si>
-    <t>anouar97@gmx.de</t>
+    <t>scmemployee@gmx.de</t>
+  </si>
+  <si>
+    <t>Bernd Bewerter</t>
   </si>
 </sst>
 </file>
@@ -441,7 +453,7 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="A7:G8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.85546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -452,14 +464,14 @@
   <sheetData>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -474,16 +486,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -491,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -503,10 +515,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -514,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -526,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -537,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -549,19 +561,57 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="1"/>
-      <c r="G7" s="4"/>
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="1"/>
-      <c r="G8" s="4"/>
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -569,11 +619,10 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{E81176BE-3930-4F36-A1E6-A568907B25DB}"/>
-    <hyperlink ref="G5" r:id="rId2" xr:uid="{51CABCA6-AB35-46ED-8D8A-61C59CCC86B4}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{60AFD641-5955-40A8-91FE-84042D788086}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{4C187D5C-BFE0-4500-BE12-19D878931A65}"/>
+    <hyperlink ref="G5:G8" r:id="rId2" display="scmemployee@gmx.de" xr:uid="{3A5E9367-0C79-491A-BE6F-DA1F46D9A544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>